--- a/data/directorix-processed.xlsx
+++ b/data/directorix-processed.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="directorix xlsx" r:id="rId3" sheetId="1"/>
+    <sheet name="directorix processed xlsx" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -149,7 +149,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Educación Sexual</t>
+          <t>Educación sexual</t>
         </is>
       </c>
       <c r="E2"/>
@@ -204,7 +204,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fotografía y Video</t>
+          <t>Fotografía y video</t>
         </is>
       </c>
       <c r="E3"/>
@@ -257,7 +257,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Artesanias y Manualidades</t>
+          <t>Artesanias y manualidades</t>
         </is>
       </c>
       <c r="E4"/>
@@ -310,7 +310,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E5"/>
@@ -357,7 +357,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diseño y Comunicación Visual</t>
+          <t>Diseño y comunicación visual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -367,7 +367,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Terapias Energéticas de Reiki</t>
+          <t>Terapias energéticas de reiki</t>
         </is>
       </c>
       <c r="G6"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Servicios de Salud</t>
+          <t>Servicios de salud</t>
         </is>
       </c>
       <c r="E8"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E9"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Servicios de Salud</t>
+          <t>Servicios de salud</t>
         </is>
       </c>
       <c r="E10"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Artes Visuales</t>
+          <t>Artes visuales</t>
         </is>
       </c>
       <c r="E11"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E12"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E13"/>
@@ -799,12 +799,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Producción de Proyectos Audiovisuales</t>
+          <t>Producción de proyectos audiovisuales</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gestión Cultural</t>
+          <t>Gestión cultural</t>
         </is>
       </c>
       <c r="F14"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Recursos humanos</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Salud Mental</t>
+          <t>Servicios de salud</t>
         </is>
       </c>
       <c r="E16"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E17"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Artes Plásticas</t>
+          <t>Artes plásticas</t>
         </is>
       </c>
       <c r="E18"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E19"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Traducciones y Escritura</t>
+          <t>Traducciones y escritura</t>
         </is>
       </c>
       <c r="E20"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E21"/>
@@ -1240,22 +1240,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cuidados Colectivos</t>
+          <t>Cuidados colectivos</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salud Holística</t>
+          <t>Salud holística</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Artes Gráficas</t>
+          <t>Artes gráficas</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Modificación Corporal</t>
+          <t>Modificación corporal</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Traducciones y Escritura</t>
+          <t>Traducciones y escritura</t>
         </is>
       </c>
       <c r="E23"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Artes Visuales</t>
+          <t>Artes visuales</t>
         </is>
       </c>
       <c r="E24"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Diseño Gráfico</t>
+          <t>Diseño gráfico</t>
         </is>
       </c>
       <c r="E26"/>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Artes Visuales</t>
+          <t>Artes visuales</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Artes Escenicas</t>
+          <t>Artes escenicas</t>
         </is>
       </c>
       <c r="E30"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Artes Visuales</t>
+          <t>Artes visuales</t>
         </is>
       </c>
       <c r="E31"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Artesanias y Manualidades</t>
+          <t>Artesanias y manualidades</t>
         </is>
       </c>
       <c r="E32"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Artes Visuales</t>
+          <t>Artes visuales</t>
         </is>
       </c>
       <c r="E33"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Artes Visuales</t>
+          <t>Artes visuales</t>
         </is>
       </c>
       <c r="E34"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Salud Fisica</t>
+          <t>Servicios de salud</t>
         </is>
       </c>
       <c r="E35"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Clases de Idiomas</t>
+          <t>Clases de idiomas</t>
         </is>
       </c>
       <c r="F36"/>
